--- a/natmiOut/OldD2/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Lamb1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.6897245326217</v>
+        <v>96.0359115</v>
       </c>
       <c r="H2">
-        <v>95.6897245326217</v>
+        <v>192.071823</v>
       </c>
       <c r="I2">
-        <v>0.444124385039907</v>
+        <v>0.4316450370266139</v>
       </c>
       <c r="J2">
-        <v>0.444124385039907</v>
+        <v>0.355483932052054</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N2">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O2">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P2">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q2">
-        <v>15747.86263943358</v>
+        <v>15805.32818464956</v>
       </c>
       <c r="R2">
-        <v>15747.86263943358</v>
+        <v>63221.31273859824</v>
       </c>
       <c r="S2">
-        <v>0.1052259973095767</v>
+        <v>0.1001746898558882</v>
       </c>
       <c r="T2">
-        <v>0.1052259973095767</v>
+        <v>0.06418610872354236</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.6897245326217</v>
+        <v>96.0359115</v>
       </c>
       <c r="H3">
-        <v>95.6897245326217</v>
+        <v>192.071823</v>
       </c>
       <c r="I3">
-        <v>0.444124385039907</v>
+        <v>0.4316450370266139</v>
       </c>
       <c r="J3">
-        <v>0.444124385039907</v>
+        <v>0.355483932052054</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N3">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O3">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P3">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q3">
-        <v>10657.08728753531</v>
+        <v>11405.64049316497</v>
       </c>
       <c r="R3">
-        <v>10657.08728753531</v>
+        <v>68433.84295898983</v>
       </c>
       <c r="S3">
-        <v>0.07120983106863378</v>
+        <v>0.07228932456589124</v>
       </c>
       <c r="T3">
-        <v>0.07120983106863378</v>
+        <v>0.06947818535020404</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.6897245326217</v>
+        <v>96.0359115</v>
       </c>
       <c r="H4">
-        <v>95.6897245326217</v>
+        <v>192.071823</v>
       </c>
       <c r="I4">
-        <v>0.444124385039907</v>
+        <v>0.4316450370266139</v>
       </c>
       <c r="J4">
-        <v>0.444124385039907</v>
+        <v>0.355483932052054</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N4">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O4">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P4">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q4">
-        <v>8040.008636361194</v>
+        <v>8118.103541373805</v>
       </c>
       <c r="R4">
-        <v>8040.008636361194</v>
+        <v>48708.62124824284</v>
       </c>
       <c r="S4">
-        <v>0.05372271440952484</v>
+        <v>0.05145280724160678</v>
       </c>
       <c r="T4">
-        <v>0.05372271440952484</v>
+        <v>0.04945194466524897</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.6897245326217</v>
+        <v>96.0359115</v>
       </c>
       <c r="H5">
-        <v>95.6897245326217</v>
+        <v>192.071823</v>
       </c>
       <c r="I5">
-        <v>0.444124385039907</v>
+        <v>0.4316450370266139</v>
       </c>
       <c r="J5">
-        <v>0.444124385039907</v>
+        <v>0.355483932052054</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N5">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O5">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P5">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q5">
-        <v>7559.612402263757</v>
+        <v>7647.887197500402</v>
       </c>
       <c r="R5">
-        <v>7559.612402263757</v>
+        <v>45887.32318500242</v>
       </c>
       <c r="S5">
-        <v>0.05051274401582284</v>
+        <v>0.04847256058918763</v>
       </c>
       <c r="T5">
-        <v>0.05051274401582284</v>
+        <v>0.04658759186420203</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.6897245326217</v>
+        <v>96.0359115</v>
       </c>
       <c r="H6">
-        <v>95.6897245326217</v>
+        <v>192.071823</v>
       </c>
       <c r="I6">
-        <v>0.444124385039907</v>
+        <v>0.4316450370266139</v>
       </c>
       <c r="J6">
-        <v>0.444124385039907</v>
+        <v>0.355483932052054</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N6">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O6">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P6">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q6">
-        <v>11107.16152075074</v>
+        <v>11690.76688882836</v>
       </c>
       <c r="R6">
-        <v>11107.16152075074</v>
+        <v>70144.60133297018</v>
       </c>
       <c r="S6">
-        <v>0.07421719220314392</v>
+        <v>0.07409646503913039</v>
       </c>
       <c r="T6">
-        <v>0.07421719220314392</v>
+        <v>0.07121505094560909</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>95.6897245326217</v>
+        <v>96.0359115</v>
       </c>
       <c r="H7">
-        <v>95.6897245326217</v>
+        <v>192.071823</v>
       </c>
       <c r="I7">
-        <v>0.444124385039907</v>
+        <v>0.4316450370266139</v>
       </c>
       <c r="J7">
-        <v>0.444124385039907</v>
+        <v>0.355483932052054</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N7">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O7">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P7">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q7">
-        <v>13354.82510640378</v>
+        <v>13436.21770764059</v>
       </c>
       <c r="R7">
-        <v>13354.82510640378</v>
+        <v>53744.87083056237</v>
       </c>
       <c r="S7">
-        <v>0.08923590603320482</v>
+        <v>0.0851591897349098</v>
       </c>
       <c r="T7">
-        <v>0.08923590603320482</v>
+        <v>0.05456505050324749</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.8093096734254</v>
+        <v>49.36871833333333</v>
       </c>
       <c r="H8">
-        <v>45.8093096734254</v>
+        <v>148.106155</v>
       </c>
       <c r="I8">
-        <v>0.2126145893635306</v>
+        <v>0.2218936845614064</v>
       </c>
       <c r="J8">
-        <v>0.2126145893635306</v>
+        <v>0.2741128683956469</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N8">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O8">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P8">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q8">
-        <v>7538.936075612241</v>
+        <v>8124.968911383309</v>
       </c>
       <c r="R8">
-        <v>7538.936075612241</v>
+        <v>48749.81346829986</v>
       </c>
       <c r="S8">
-        <v>0.05037458640406184</v>
+        <v>0.05149632018252222</v>
       </c>
       <c r="T8">
-        <v>0.05037458640406184</v>
+        <v>0.04949376550383352</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.8093096734254</v>
+        <v>49.36871833333333</v>
       </c>
       <c r="H9">
-        <v>45.8093096734254</v>
+        <v>148.106155</v>
       </c>
       <c r="I9">
-        <v>0.2126145893635306</v>
+        <v>0.2218936845614064</v>
       </c>
       <c r="J9">
-        <v>0.2126145893635306</v>
+        <v>0.2741128683956469</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N9">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O9">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P9">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q9">
-        <v>5101.841542087411</v>
+        <v>5863.242657079613</v>
       </c>
       <c r="R9">
-        <v>5101.841542087411</v>
+        <v>52769.18391371652</v>
       </c>
       <c r="S9">
-        <v>0.03409010966588452</v>
+        <v>0.0371614247968105</v>
       </c>
       <c r="T9">
-        <v>0.03409010966588452</v>
+        <v>0.05357447400598708</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.8093096734254</v>
+        <v>49.36871833333333</v>
       </c>
       <c r="H10">
-        <v>45.8093096734254</v>
+        <v>148.106155</v>
       </c>
       <c r="I10">
-        <v>0.2126145893635306</v>
+        <v>0.2218936845614064</v>
       </c>
       <c r="J10">
-        <v>0.2126145893635306</v>
+        <v>0.2741128683956469</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N10">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O10">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P10">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q10">
-        <v>3848.973828684443</v>
+        <v>4173.234375298445</v>
       </c>
       <c r="R10">
-        <v>3848.973828684443</v>
+        <v>37559.10937768601</v>
       </c>
       <c r="S10">
-        <v>0.02571854473302339</v>
+        <v>0.02645009672418404</v>
       </c>
       <c r="T10">
-        <v>0.02571854473302339</v>
+        <v>0.03813228440926907</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.8093096734254</v>
+        <v>49.36871833333333</v>
       </c>
       <c r="H11">
-        <v>45.8093096734254</v>
+        <v>148.106155</v>
       </c>
       <c r="I11">
-        <v>0.2126145893635306</v>
+        <v>0.2218936845614064</v>
       </c>
       <c r="J11">
-        <v>0.2126145893635306</v>
+        <v>0.2741128683956469</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N11">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O11">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P11">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q11">
-        <v>3618.994905020445</v>
+        <v>3931.51252485903</v>
       </c>
       <c r="R11">
-        <v>3618.994905020445</v>
+        <v>35383.61272373128</v>
       </c>
       <c r="S11">
-        <v>0.02418184339412997</v>
+        <v>0.02491805568610694</v>
       </c>
       <c r="T11">
-        <v>0.02418184339412997</v>
+        <v>0.03592358834286821</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.8093096734254</v>
+        <v>49.36871833333333</v>
       </c>
       <c r="H12">
-        <v>45.8093096734254</v>
+        <v>148.106155</v>
       </c>
       <c r="I12">
-        <v>0.2126145893635306</v>
+        <v>0.2218936845614064</v>
       </c>
       <c r="J12">
-        <v>0.2126145893635306</v>
+        <v>0.2741128683956469</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N12">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O12">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P12">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q12">
-        <v>5317.304487833131</v>
+        <v>6009.816209587672</v>
       </c>
       <c r="R12">
-        <v>5317.304487833131</v>
+        <v>54088.34588628905</v>
       </c>
       <c r="S12">
-        <v>0.03552981636567373</v>
+        <v>0.03809041279326545</v>
       </c>
       <c r="T12">
-        <v>0.03552981636567373</v>
+        <v>0.0549137671988633</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.8093096734254</v>
+        <v>49.36871833333333</v>
       </c>
       <c r="H13">
-        <v>45.8093096734254</v>
+        <v>148.106155</v>
       </c>
       <c r="I13">
-        <v>0.2126145893635306</v>
+        <v>0.2218936845614064</v>
       </c>
       <c r="J13">
-        <v>0.2126145893635306</v>
+        <v>0.2741128683956469</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N13">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O13">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P13">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q13">
-        <v>6393.323023154134</v>
+        <v>6907.091702606</v>
       </c>
       <c r="R13">
-        <v>6393.323023154134</v>
+        <v>41442.55021563599</v>
       </c>
       <c r="S13">
-        <v>0.04271968880075708</v>
+        <v>0.04377737437851728</v>
       </c>
       <c r="T13">
-        <v>0.04271968880075708</v>
+        <v>0.0420749889348257</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.14905412954697</v>
+        <v>0.09219533333333334</v>
       </c>
       <c r="H14">
-        <v>0.14905412954697</v>
+        <v>0.276586</v>
       </c>
       <c r="I14">
-        <v>0.0006918044120833355</v>
+        <v>0.0004143830932489008</v>
       </c>
       <c r="J14">
-        <v>0.0006918044120833355</v>
+        <v>0.000511901627708034</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N14">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O14">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P14">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q14">
-        <v>24.53015691508033</v>
+        <v>15.17325631283767</v>
       </c>
       <c r="R14">
-        <v>24.53015691508033</v>
+        <v>91.03953787702599</v>
       </c>
       <c r="S14">
-        <v>0.0001639086068153931</v>
+        <v>9.616859754412699E-05</v>
       </c>
       <c r="T14">
-        <v>0.0001639086068153931</v>
+        <v>9.242885702922541E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.14905412954697</v>
+        <v>0.09219533333333334</v>
       </c>
       <c r="H15">
-        <v>0.14905412954697</v>
+        <v>0.276586</v>
       </c>
       <c r="I15">
-        <v>0.0006918044120833355</v>
+        <v>0.0004143830932489008</v>
       </c>
       <c r="J15">
-        <v>0.0006918044120833355</v>
+        <v>0.000511901627708034</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N15">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O15">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P15">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q15">
-        <v>16.60034948275062</v>
+        <v>10.94951680806933</v>
       </c>
       <c r="R15">
-        <v>16.60034948275062</v>
+        <v>98.545651272624</v>
       </c>
       <c r="S15">
-        <v>0.0001109222483078997</v>
+        <v>6.939839764829914E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001109222483078997</v>
+        <v>0.000100049518316237</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.14905412954697</v>
+        <v>0.09219533333333334</v>
       </c>
       <c r="H16">
-        <v>0.14905412954697</v>
+        <v>0.276586</v>
       </c>
       <c r="I16">
-        <v>0.0006918044120833355</v>
+        <v>0.0004143830932489008</v>
       </c>
       <c r="J16">
-        <v>0.0006918044120833355</v>
+        <v>0.000511901627708034</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N16">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O16">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P16">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q16">
-        <v>12.52377404884672</v>
+        <v>7.793451952934001</v>
       </c>
       <c r="R16">
-        <v>12.52377404884672</v>
+        <v>70.141067576406</v>
       </c>
       <c r="S16">
-        <v>8.368288729352869E-05</v>
+        <v>4.939515479660631E-05</v>
       </c>
       <c r="T16">
-        <v>8.368288729352869E-05</v>
+        <v>7.121146326175367E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.14905412954697</v>
+        <v>0.09219533333333334</v>
       </c>
       <c r="H17">
-        <v>0.14905412954697</v>
+        <v>0.276586</v>
       </c>
       <c r="I17">
-        <v>0.0006918044120833355</v>
+        <v>0.0004143830932489008</v>
       </c>
       <c r="J17">
-        <v>0.0006918044120833355</v>
+        <v>0.000511901627708034</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N17">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O17">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P17">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q17">
-        <v>11.77546964248776</v>
+        <v>7.342040060392222</v>
       </c>
       <c r="R17">
-        <v>11.77546964248776</v>
+        <v>66.07836054353</v>
       </c>
       <c r="S17">
-        <v>7.868277526225532E-05</v>
+        <v>4.653409137518677E-05</v>
       </c>
       <c r="T17">
-        <v>7.868277526225532E-05</v>
+        <v>6.708675682925226E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.14905412954697</v>
+        <v>0.09219533333333334</v>
       </c>
       <c r="H18">
-        <v>0.14905412954697</v>
+        <v>0.276586</v>
       </c>
       <c r="I18">
-        <v>0.0006918044120833355</v>
+        <v>0.0004143830932489008</v>
       </c>
       <c r="J18">
-        <v>0.0006918044120833355</v>
+        <v>0.000511901627708034</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N18">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O18">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P18">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q18">
-        <v>17.30142186425356</v>
+        <v>11.22324069614133</v>
       </c>
       <c r="R18">
-        <v>17.30142186425356</v>
+        <v>101.009166265272</v>
       </c>
       <c r="S18">
-        <v>0.0001156067596107302</v>
+        <v>7.113326865340686E-05</v>
       </c>
       <c r="T18">
-        <v>0.0001156067596107302</v>
+        <v>0.0001025506280577253</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.14905412954697</v>
+        <v>0.09219533333333334</v>
       </c>
       <c r="H19">
-        <v>0.14905412954697</v>
+        <v>0.276586</v>
       </c>
       <c r="I19">
-        <v>0.0006918044120833355</v>
+        <v>0.0004143830932489008</v>
       </c>
       <c r="J19">
-        <v>0.0006918044120833355</v>
+        <v>0.000511901627708034</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N19">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O19">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P19">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q19">
-        <v>20.80256622338193</v>
+        <v>12.89888908166567</v>
       </c>
       <c r="R19">
-        <v>20.80256622338193</v>
+        <v>77.393334489994</v>
       </c>
       <c r="S19">
-        <v>0.0001390011347935284</v>
+        <v>8.175358323127476E-05</v>
       </c>
       <c r="T19">
-        <v>0.0001390011347935284</v>
+        <v>7.857440421384042E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>45.1260016937679</v>
+        <v>0.1894406666666667</v>
       </c>
       <c r="H20">
-        <v>45.1260016937679</v>
+        <v>0.568322</v>
       </c>
       <c r="I20">
-        <v>0.2094431544185507</v>
+        <v>0.0008514640232021931</v>
       </c>
       <c r="J20">
-        <v>0.2094431544185507</v>
+        <v>0.001051842670497731</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N20">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O20">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P20">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q20">
-        <v>7426.482619855798</v>
+        <v>31.17762784170034</v>
       </c>
       <c r="R20">
-        <v>7426.482619855798</v>
+        <v>187.065767050202</v>
       </c>
       <c r="S20">
-        <v>0.04962318113060909</v>
+        <v>0.0001976048306619762</v>
       </c>
       <c r="T20">
-        <v>0.04962318113060909</v>
+        <v>0.0001899205053204553</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>45.1260016937679</v>
+        <v>0.1894406666666667</v>
       </c>
       <c r="H21">
-        <v>45.1260016937679</v>
+        <v>0.568322</v>
       </c>
       <c r="I21">
-        <v>0.2094431544185507</v>
+        <v>0.0008514640232021931</v>
       </c>
       <c r="J21">
-        <v>0.2094431544185507</v>
+        <v>0.001051842670497731</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N21">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O21">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P21">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q21">
-        <v>5025.740656448463</v>
+        <v>22.49879347253867</v>
       </c>
       <c r="R21">
-        <v>5025.740656448463</v>
+        <v>202.489141252848</v>
       </c>
       <c r="S21">
-        <v>0.03358160944773756</v>
+        <v>0.0001425980929919687</v>
       </c>
       <c r="T21">
-        <v>0.03358160944773756</v>
+        <v>0.0002055792496674469</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>45.1260016937679</v>
+        <v>0.1894406666666667</v>
       </c>
       <c r="H22">
-        <v>45.1260016937679</v>
+        <v>0.568322</v>
       </c>
       <c r="I22">
-        <v>0.2094431544185507</v>
+        <v>0.0008514640232021931</v>
       </c>
       <c r="J22">
-        <v>0.2094431544185507</v>
+        <v>0.001051842670497731</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N22">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O22">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P22">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q22">
-        <v>3791.561164110746</v>
+        <v>16.013790288718</v>
       </c>
       <c r="R22">
-        <v>3791.561164110746</v>
+        <v>144.124112598462</v>
       </c>
       <c r="S22">
-        <v>0.02533491775923714</v>
+        <v>0.000101495929527586</v>
       </c>
       <c r="T22">
-        <v>0.02533491775923714</v>
+        <v>0.0001463235348999818</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>45.1260016937679</v>
+        <v>0.1894406666666667</v>
       </c>
       <c r="H23">
-        <v>45.1260016937679</v>
+        <v>0.568322</v>
       </c>
       <c r="I23">
-        <v>0.2094431544185507</v>
+        <v>0.0008514640232021931</v>
       </c>
       <c r="J23">
-        <v>0.2094431544185507</v>
+        <v>0.001051842670497731</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N23">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O23">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P23">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q23">
-        <v>3565.012687987061</v>
+        <v>15.08624041420111</v>
       </c>
       <c r="R23">
-        <v>3565.012687987061</v>
+        <v>135.77616372781</v>
       </c>
       <c r="S23">
-        <v>0.02382113840486394</v>
+        <v>9.561708791670183E-05</v>
       </c>
       <c r="T23">
-        <v>0.02382113840486394</v>
+        <v>0.0001378481912125498</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>45.1260016937679</v>
+        <v>0.1894406666666667</v>
       </c>
       <c r="H24">
-        <v>45.1260016937679</v>
+        <v>0.568322</v>
       </c>
       <c r="I24">
-        <v>0.2094431544185507</v>
+        <v>0.0008514640232021931</v>
       </c>
       <c r="J24">
-        <v>0.2094431544185507</v>
+        <v>0.001051842670497731</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N24">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O24">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P24">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q24">
-        <v>5237.989680150866</v>
+        <v>23.06123447648266</v>
       </c>
       <c r="R24">
-        <v>5237.989680150866</v>
+        <v>207.551110288344</v>
       </c>
       <c r="S24">
-        <v>0.03499984096959142</v>
+        <v>0.000146162862573093</v>
       </c>
       <c r="T24">
-        <v>0.03499984096959142</v>
+        <v>0.0002107184674532425</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>45.1260016937679</v>
+        <v>0.1894406666666667</v>
       </c>
       <c r="H25">
-        <v>45.1260016937679</v>
+        <v>0.568322</v>
       </c>
       <c r="I25">
-        <v>0.2094431544185507</v>
+        <v>0.0008514640232021931</v>
       </c>
       <c r="J25">
-        <v>0.2094431544185507</v>
+        <v>0.001051842670497731</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>139.563836886697</v>
+        <v>139.9082645</v>
       </c>
       <c r="N25">
-        <v>139.563836886697</v>
+        <v>279.816529</v>
       </c>
       <c r="O25">
-        <v>0.2009254817773325</v>
+        <v>0.1972898618770847</v>
       </c>
       <c r="P25">
-        <v>0.2009254817773325</v>
+        <v>0.1534951247677137</v>
       </c>
       <c r="Q25">
-        <v>6297.957939737836</v>
+        <v>26.50431489905634</v>
       </c>
       <c r="R25">
-        <v>6297.957939737836</v>
+        <v>159.025889394338</v>
       </c>
       <c r="S25">
-        <v>0.04208246670651154</v>
+        <v>0.0001679852195308676</v>
       </c>
       <c r="T25">
-        <v>0.04208246670651154</v>
+        <v>0.0001614527219440543</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>28.6829480344756</v>
+        <v>45.68416200000001</v>
       </c>
       <c r="H26">
-        <v>28.6829480344756</v>
+        <v>137.052486</v>
       </c>
       <c r="I26">
-        <v>0.1331260667659283</v>
+        <v>0.2053329998124694</v>
       </c>
       <c r="J26">
-        <v>0.1331260667659283</v>
+        <v>0.2536548873219633</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>164.57213892454</v>
+        <v>164.5772705</v>
       </c>
       <c r="N26">
-        <v>164.57213892454</v>
+        <v>329.154541</v>
       </c>
       <c r="O26">
-        <v>0.2369291145770381</v>
+        <v>0.2320765473082729</v>
       </c>
       <c r="P26">
-        <v>0.2369291145770381</v>
+        <v>0.1805598029509348</v>
       </c>
       <c r="Q26">
-        <v>4720.41410869508</v>
+        <v>7518.574687039822</v>
       </c>
       <c r="R26">
-        <v>4720.41410869508</v>
+        <v>45111.44812223893</v>
       </c>
       <c r="S26">
-        <v>0.03154144112597505</v>
+        <v>0.04765297364492816</v>
       </c>
       <c r="T26">
-        <v>0.03154144112597505</v>
+        <v>0.04579987647239527</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,61 +2078,61 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>28.6829480344756</v>
+        <v>45.68416200000001</v>
       </c>
       <c r="H27">
-        <v>28.6829480344756</v>
+        <v>137.052486</v>
       </c>
       <c r="I27">
-        <v>0.1331260667659283</v>
+        <v>0.2053329998124694</v>
       </c>
       <c r="J27">
-        <v>0.1331260667659283</v>
+        <v>0.2536548873219633</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>111.37128191755</v>
+        <v>118.764328</v>
       </c>
       <c r="N27">
-        <v>111.37128191755</v>
+        <v>356.292984</v>
       </c>
       <c r="O27">
-        <v>0.1603375843959462</v>
+        <v>0.1674740084210307</v>
       </c>
       <c r="P27">
-        <v>0.1603375843959462</v>
+        <v>0.1954467673099505</v>
       </c>
       <c r="Q27">
-        <v>3194.456691774019</v>
+        <v>5425.648800173137</v>
       </c>
       <c r="R27">
-        <v>3194.456691774019</v>
+        <v>48830.83920155823</v>
       </c>
       <c r="S27">
-        <v>0.0213451119653824</v>
+        <v>0.03438794053970899</v>
       </c>
       <c r="T27">
-        <v>0.0213451119653824</v>
+        <v>0.04957602773944748</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,61 +2140,61 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>28.6829480344756</v>
+        <v>45.68416200000001</v>
       </c>
       <c r="H28">
-        <v>28.6829480344756</v>
+        <v>137.052486</v>
       </c>
       <c r="I28">
-        <v>0.1331260667659283</v>
+        <v>0.2053329998124694</v>
       </c>
       <c r="J28">
-        <v>0.1331260667659283</v>
+        <v>0.2536548873219633</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>84.02165097277781</v>
+        <v>84.53195700000001</v>
       </c>
       <c r="N28">
-        <v>84.02165097277781</v>
+        <v>253.595871</v>
       </c>
       <c r="O28">
-        <v>0.1209632171057159</v>
+        <v>0.1192016653221345</v>
       </c>
       <c r="P28">
-        <v>0.1209632171057159</v>
+        <v>0.1391116171686985</v>
       </c>
       <c r="Q28">
-        <v>2409.988648623032</v>
+        <v>3861.771617765035</v>
       </c>
       <c r="R28">
-        <v>2409.988648623032</v>
+        <v>34755.94455988531</v>
       </c>
       <c r="S28">
-        <v>0.01610335731663702</v>
+        <v>0.02447603552323588</v>
       </c>
       <c r="T28">
-        <v>0.01610335731663702</v>
+        <v>0.03528634157810232</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,61 +2202,61 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>28.6829480344756</v>
+        <v>45.68416200000001</v>
       </c>
       <c r="H29">
-        <v>28.6829480344756</v>
+        <v>137.052486</v>
       </c>
       <c r="I29">
-        <v>0.1331260667659283</v>
+        <v>0.2053329998124694</v>
       </c>
       <c r="J29">
-        <v>0.1331260667659283</v>
+        <v>0.2536548873219633</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>79.00129757073969</v>
+        <v>79.63570166666666</v>
       </c>
       <c r="N29">
-        <v>79.00129757073969</v>
+        <v>238.907105</v>
       </c>
       <c r="O29">
-        <v>0.1137355788542978</v>
+        <v>0.1122972730628175</v>
       </c>
       <c r="P29">
-        <v>0.1137355788542978</v>
+        <v>0.1310540017808179</v>
       </c>
       <c r="Q29">
-        <v>2265.99011287767</v>
+        <v>3638.090295923671</v>
       </c>
       <c r="R29">
-        <v>2265.99011287767</v>
+        <v>32742.81266331303</v>
       </c>
       <c r="S29">
-        <v>0.01514117026421875</v>
+        <v>0.02305833594874833</v>
       </c>
       <c r="T29">
-        <v>0.01514117026421875</v>
+        <v>0.03324248805480574</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,61 +2264,61 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>28.6829480344756</v>
+        <v>45.68416200000001</v>
       </c>
       <c r="H30">
-        <v>28.6829480344756</v>
+        <v>137.052486</v>
       </c>
       <c r="I30">
-        <v>0.1331260667659283</v>
+        <v>0.2053329998124694</v>
       </c>
       <c r="J30">
-        <v>0.1331260667659283</v>
+        <v>0.2536548873219633</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>116.0747569815</v>
+        <v>121.733284</v>
       </c>
       <c r="N30">
-        <v>116.0747569815</v>
+        <v>365.199852</v>
       </c>
       <c r="O30">
-        <v>0.1671090232896694</v>
+        <v>0.1716606440086599</v>
       </c>
       <c r="P30">
-        <v>0.1671090232896694</v>
+        <v>0.2003326860218846</v>
       </c>
       <c r="Q30">
-        <v>3329.366222614748</v>
+        <v>5561.283067048008</v>
       </c>
       <c r="R30">
-        <v>3329.366222614748</v>
+        <v>50051.54760343207</v>
       </c>
       <c r="S30">
-        <v>0.0222465669916496</v>
+        <v>0.03524759498403855</v>
       </c>
       <c r="T30">
-        <v>0.0222465669916496</v>
+        <v>0.0508153648997874</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>45.68416200000001</v>
+      </c>
+      <c r="H31">
+        <v>137.052486</v>
+      </c>
+      <c r="I31">
+        <v>0.2053329998124694</v>
+      </c>
+      <c r="J31">
+        <v>0.2536548873219633</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>139.9082645</v>
+      </c>
+      <c r="N31">
+        <v>279.816529</v>
+      </c>
+      <c r="O31">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P31">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q31">
+        <v>6391.591820556851</v>
+      </c>
+      <c r="R31">
+        <v>38349.5509233411</v>
+      </c>
+      <c r="S31">
+        <v>0.04051011917180956</v>
+      </c>
+      <c r="T31">
+        <v>0.03893478857742513</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>31.1177355</v>
+      </c>
+      <c r="H32">
+        <v>62.235471</v>
+      </c>
+      <c r="I32">
+        <v>0.1398624314830591</v>
+      </c>
+      <c r="J32">
+        <v>0.1151845679321302</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>164.5772705</v>
+      </c>
+      <c r="N32">
+        <v>329.154541</v>
+      </c>
+      <c r="O32">
+        <v>0.2320765473082729</v>
+      </c>
+      <c r="P32">
+        <v>0.1805598029509348</v>
+      </c>
+      <c r="Q32">
+        <v>5121.271972730953</v>
+      </c>
+      <c r="R32">
+        <v>20485.08789092381</v>
+      </c>
+      <c r="S32">
+        <v>0.03245879019672825</v>
+      </c>
+      <c r="T32">
+        <v>0.02079770288881398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>31.1177355</v>
+      </c>
+      <c r="H33">
+        <v>62.235471</v>
+      </c>
+      <c r="I33">
+        <v>0.1398624314830591</v>
+      </c>
+      <c r="J33">
+        <v>0.1151845679321302</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>118.764328</v>
+      </c>
+      <c r="N33">
+        <v>356.292984</v>
+      </c>
+      <c r="O33">
+        <v>0.1674740084210307</v>
+      </c>
+      <c r="P33">
+        <v>0.1954467673099505</v>
+      </c>
+      <c r="Q33">
+        <v>3695.676945539244</v>
+      </c>
+      <c r="R33">
+        <v>22174.06167323546</v>
+      </c>
+      <c r="S33">
+        <v>0.02342332202797967</v>
+      </c>
+      <c r="T33">
+        <v>0.02251245144632823</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>31.1177355</v>
+      </c>
+      <c r="H34">
+        <v>62.235471</v>
+      </c>
+      <c r="I34">
+        <v>0.1398624314830591</v>
+      </c>
+      <c r="J34">
+        <v>0.1151845679321302</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>84.53195700000001</v>
+      </c>
+      <c r="N34">
+        <v>253.595871</v>
+      </c>
+      <c r="O34">
+        <v>0.1192016653221345</v>
+      </c>
+      <c r="P34">
+        <v>0.1391116171686985</v>
+      </c>
+      <c r="Q34">
+        <v>2630.443079223374</v>
+      </c>
+      <c r="R34">
+        <v>15782.65847534024</v>
+      </c>
+      <c r="S34">
+        <v>0.01667183474878358</v>
+      </c>
+      <c r="T34">
+        <v>0.01602351151791644</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>31.1177355</v>
+      </c>
+      <c r="H35">
+        <v>62.235471</v>
+      </c>
+      <c r="I35">
+        <v>0.1398624314830591</v>
+      </c>
+      <c r="J35">
+        <v>0.1151845679321302</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>79.63570166666666</v>
+      </c>
+      <c r="N35">
+        <v>238.907105</v>
+      </c>
+      <c r="O35">
+        <v>0.1122972730628175</v>
+      </c>
+      <c r="P35">
+        <v>0.1310540017808179</v>
+      </c>
+      <c r="Q35">
+        <v>2478.082700820243</v>
+      </c>
+      <c r="R35">
+        <v>14868.49620492146</v>
+      </c>
+      <c r="S35">
+        <v>0.01570616965948269</v>
+      </c>
+      <c r="T35">
+        <v>0.01509539857090012</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>28.6829480344756</v>
-      </c>
-      <c r="H31">
-        <v>28.6829480344756</v>
-      </c>
-      <c r="I31">
-        <v>0.1331260667659283</v>
-      </c>
-      <c r="J31">
-        <v>0.1331260667659283</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>139.563836886697</v>
-      </c>
-      <c r="N31">
-        <v>139.563836886697</v>
-      </c>
-      <c r="O31">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="P31">
-        <v>0.2009254817773325</v>
-      </c>
-      <c r="Q31">
-        <v>4003.102280913159</v>
-      </c>
-      <c r="R31">
-        <v>4003.102280913159</v>
-      </c>
-      <c r="S31">
-        <v>0.02674841910206547</v>
-      </c>
-      <c r="T31">
-        <v>0.02674841910206547</v>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>31.1177355</v>
+      </c>
+      <c r="H36">
+        <v>62.235471</v>
+      </c>
+      <c r="I36">
+        <v>0.1398624314830591</v>
+      </c>
+      <c r="J36">
+        <v>0.1151845679321302</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>121.733284</v>
+      </c>
+      <c r="N36">
+        <v>365.199852</v>
+      </c>
+      <c r="O36">
+        <v>0.1716606440086599</v>
+      </c>
+      <c r="P36">
+        <v>0.2003326860218846</v>
+      </c>
+      <c r="Q36">
+        <v>3788.064133058382</v>
+      </c>
+      <c r="R36">
+        <v>22728.38479835029</v>
+      </c>
+      <c r="S36">
+        <v>0.024008875060999</v>
+      </c>
+      <c r="T36">
+        <v>0.02307523388211387</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>31.1177355</v>
+      </c>
+      <c r="H37">
+        <v>62.235471</v>
+      </c>
+      <c r="I37">
+        <v>0.1398624314830591</v>
+      </c>
+      <c r="J37">
+        <v>0.1151845679321302</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>139.9082645</v>
+      </c>
+      <c r="N37">
+        <v>279.816529</v>
+      </c>
+      <c r="O37">
+        <v>0.1972898618770847</v>
+      </c>
+      <c r="P37">
+        <v>0.1534951247677137</v>
+      </c>
+      <c r="Q37">
+        <v>4353.62836897504</v>
+      </c>
+      <c r="R37">
+        <v>17414.51347590016</v>
+      </c>
+      <c r="S37">
+        <v>0.02759343978908596</v>
+      </c>
+      <c r="T37">
+        <v>0.01768026962605751</v>
       </c>
     </row>
   </sheetData>
